--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang10/1.XuLyBH/XLBH2310_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang10/1.XuLyBH/XLBH2310_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="58" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="126">
   <si>
     <t>STT</t>
   </si>
@@ -373,6 +373,45 @@
   </si>
   <si>
     <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180320 </t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>125.212.203.114.16969</t>
+  </si>
+  <si>
+    <t>Le4.2.4.01.231010</t>
+  </si>
+  <si>
+    <t>Set lại port về port 16969</t>
+  </si>
+  <si>
+    <t>005586188105107</t>
+  </si>
+  <si>
+    <t>125.212.203.114.16767</t>
+  </si>
+  <si>
+    <t>Le4.2.4.02.231023</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW, set lại port 16969</t>
+  </si>
+  <si>
+    <t>IMEI: 861881051075134</t>
+  </si>
+  <si>
+    <t>ID mới: 868183033816856</t>
+  </si>
+  <si>
+    <t>ID: 005505051192708</t>
+  </si>
+  <si>
+    <t>Nâng cấp FW module + thiết bị</t>
   </si>
 </sst>
 </file>
@@ -735,6 +774,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -752,30 +815,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1116,41 +1155,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="27"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="4"/>
       <c r="H2" s="12"/>
       <c r="I2" s="31"/>
@@ -1183,57 +1222,57 @@
       <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="61" t="s">
+      <c r="K4" s="63"/>
+      <c r="L4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="63" t="s">
         <v>51</v>
       </c>
       <c r="W4" s="28"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1264,16 +1303,16 @@
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="68"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1283,7 +1322,9 @@
       <c r="B6" s="38">
         <v>45205</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="38">
+        <v>45209</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>91</v>
       </c>
@@ -1323,7 +1364,7 @@
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="55" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1338,7 +1379,9 @@
       <c r="B7" s="38">
         <v>45205</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="38">
+        <v>45209</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>91</v>
       </c>
@@ -1376,7 +1419,7 @@
       </c>
       <c r="S7" s="45"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="56"/>
       <c r="V7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1389,7 +1432,9 @@
       <c r="B8" s="38">
         <v>45205</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="38">
+        <v>45209</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>91</v>
       </c>
@@ -1429,7 +1474,7 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="56"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1442,7 +1487,9 @@
       <c r="B9" s="38">
         <v>45205</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="38">
+        <v>45209</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>91</v>
       </c>
@@ -1484,7 +1531,7 @@
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="56"/>
       <c r="V9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1497,7 +1544,9 @@
       <c r="B10" s="38">
         <v>45205</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="38">
+        <v>45209</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>91</v>
       </c>
@@ -1539,7 +1588,7 @@
       </c>
       <c r="S10" s="45"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="56"/>
       <c r="V10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +1601,9 @@
       <c r="B11" s="38">
         <v>45205</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="38">
+        <v>45209</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>91</v>
       </c>
@@ -1594,7 +1645,7 @@
       </c>
       <c r="S11" s="45"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="56"/>
       <c r="V11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1607,7 +1658,9 @@
       <c r="B12" s="38">
         <v>45205</v>
       </c>
-      <c r="C12" s="38"/>
+      <c r="C12" s="38">
+        <v>45209</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>91</v>
       </c>
@@ -1649,7 +1702,7 @@
       </c>
       <c r="S12" s="45"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="55" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1664,7 +1717,9 @@
       <c r="B13" s="38">
         <v>45205</v>
       </c>
-      <c r="C13" s="38"/>
+      <c r="C13" s="38">
+        <v>45209</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>91</v>
       </c>
@@ -1706,7 +1761,7 @@
       </c>
       <c r="S13" s="45"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="56"/>
       <c r="V13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1719,7 +1774,9 @@
       <c r="B14" s="38">
         <v>45205</v>
       </c>
-      <c r="C14" s="38"/>
+      <c r="C14" s="38">
+        <v>45209</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>91</v>
       </c>
@@ -1761,7 +1818,7 @@
       </c>
       <c r="S14" s="45"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="56"/>
       <c r="V14" s="3" t="s">
         <v>34</v>
       </c>
@@ -1774,7 +1831,9 @@
       <c r="B15" s="38">
         <v>45205</v>
       </c>
-      <c r="C15" s="38"/>
+      <c r="C15" s="38">
+        <v>45209</v>
+      </c>
       <c r="D15" s="37" t="s">
         <v>91</v>
       </c>
@@ -1816,7 +1875,7 @@
       </c>
       <c r="S15" s="45"/>
       <c r="T15" s="54"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="57"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1888,9 @@
       <c r="B16" s="38">
         <v>45205</v>
       </c>
-      <c r="C16" s="38"/>
+      <c r="C16" s="38">
+        <v>45209</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>91</v>
       </c>
@@ -1882,7 +1943,9 @@
       <c r="B17" s="38">
         <v>45205</v>
       </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="38">
+        <v>45209</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>91</v>
       </c>
@@ -2046,23 +2109,49 @@
       <c r="A20" s="45">
         <v>15</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="38">
+        <v>45205</v>
+      </c>
       <c r="C20" s="38"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="46"/>
+      <c r="D20" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="46">
+        <v>868926033948909</v>
+      </c>
       <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+      <c r="G20" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H20" s="41"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+      <c r="I20" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>103</v>
+      </c>
       <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="44"/>
+      <c r="O20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" s="44" t="s">
+        <v>104</v>
+      </c>
       <c r="S20" s="45"/>
       <c r="T20" s="54"/>
       <c r="U20" s="3" t="s">
@@ -2078,23 +2167,49 @@
       <c r="A21" s="45">
         <v>16</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="38">
+        <v>45205</v>
+      </c>
       <c r="C21" s="38"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="46"/>
+      <c r="D21" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="46">
+        <v>864811037202590</v>
+      </c>
       <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
+      <c r="G21" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H21" s="45"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="I21" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="M21" s="43" t="s">
+        <v>103</v>
+      </c>
       <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="44"/>
+      <c r="O21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q21" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="44" t="s">
+        <v>104</v>
+      </c>
       <c r="S21" s="45"/>
       <c r="T21" s="54"/>
       <c r="U21" s="3" t="s">
@@ -2107,23 +2222,49 @@
       <c r="A22" s="45">
         <v>17</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="46"/>
+      <c r="B22" s="38">
+        <v>45205</v>
+      </c>
+      <c r="C22" s="38">
+        <v>45209</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="46">
+        <v>868345035629773</v>
+      </c>
       <c r="F22" s="47"/>
-      <c r="G22" s="37"/>
+      <c r="G22" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H22" s="45"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="43"/>
+      <c r="I22" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
+      <c r="L22" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>90</v>
+      </c>
       <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="44"/>
+      <c r="O22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R22" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="S22" s="45"/>
       <c r="T22" s="54"/>
       <c r="U22" s="54"/>
@@ -3621,13 +3762,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3639,6 +3773,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3650,7 +3791,7 @@
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3682,41 +3823,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="27"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="4"/>
       <c r="H2" s="12"/>
       <c r="I2" s="31"/>
@@ -3749,57 +3890,57 @@
       <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="61" t="s">
+      <c r="K4" s="63"/>
+      <c r="L4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="63" t="s">
         <v>51</v>
       </c>
       <c r="W4" s="28"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
@@ -3830,16 +3971,16 @@
       <c r="K5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="68"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3849,7 +3990,9 @@
       <c r="B6" s="38">
         <v>45204</v>
       </c>
-      <c r="C6" s="38"/>
+      <c r="C6" s="38">
+        <v>45209</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>42</v>
       </c>
@@ -3891,7 +4034,7 @@
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="51"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="55" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3906,7 +4049,9 @@
       <c r="B7" s="38">
         <v>45204</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="38">
+        <v>45209</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>42</v>
       </c>
@@ -3946,7 +4091,7 @@
       </c>
       <c r="S7" s="45"/>
       <c r="T7" s="51"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="56"/>
       <c r="V7" s="3" t="s">
         <v>33</v>
       </c>
@@ -3959,7 +4104,9 @@
       <c r="B8" s="38">
         <v>45204</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="38">
+        <v>45209</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>42</v>
       </c>
@@ -4001,7 +4148,7 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="51"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="56"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -4014,7 +4161,9 @@
       <c r="B9" s="38">
         <v>45204</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="38">
+        <v>45209</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>42</v>
       </c>
@@ -4054,7 +4203,7 @@
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="51"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="56"/>
       <c r="V9" s="3" t="s">
         <v>49</v>
       </c>
@@ -4067,7 +4216,9 @@
       <c r="B10" s="38">
         <v>45204</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="38">
+        <v>45209</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>42</v>
       </c>
@@ -4107,7 +4258,7 @@
       </c>
       <c r="S10" s="45"/>
       <c r="T10" s="51"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="56"/>
       <c r="V10" s="3" t="s">
         <v>29</v>
       </c>
@@ -4120,7 +4271,9 @@
       <c r="B11" s="38">
         <v>45204</v>
       </c>
-      <c r="C11" s="38"/>
+      <c r="C11" s="38">
+        <v>45209</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>42</v>
       </c>
@@ -4158,7 +4311,7 @@
       </c>
       <c r="S11" s="45"/>
       <c r="T11" s="51"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="56"/>
       <c r="V11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4168,26 +4321,50 @@
       <c r="A12" s="45">
         <v>7</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="38">
+        <v>45210</v>
+      </c>
+      <c r="C12" s="38">
+        <v>45223</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="46">
+        <v>868183038029687</v>
+      </c>
       <c r="F12" s="47"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="43"/>
+      <c r="I12" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>82</v>
+      </c>
       <c r="K12" s="43"/>
       <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="M12" s="43" t="s">
+        <v>90</v>
+      </c>
       <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="44"/>
+      <c r="O12" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="S12" s="45"/>
       <c r="T12" s="51"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="55" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4199,26 +4376,52 @@
       <c r="A13" s="45">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="38">
+        <v>45218</v>
+      </c>
+      <c r="C13" s="38">
+        <v>45223</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="46">
+        <v>860157040216159</v>
+      </c>
       <c r="F13" s="47"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="43"/>
+      <c r="G13" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>82</v>
+      </c>
       <c r="K13" s="43"/>
       <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="M13" s="43" t="s">
+        <v>117</v>
+      </c>
       <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="44"/>
+      <c r="O13" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="S13" s="45"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="56"/>
       <c r="V13" s="3" t="s">
         <v>35</v>
       </c>
@@ -4247,7 +4450,7 @@
       <c r="R14" s="44"/>
       <c r="S14" s="45"/>
       <c r="T14" s="51"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="56"/>
       <c r="V14" s="3" t="s">
         <v>34</v>
       </c>
@@ -4276,7 +4479,7 @@
       <c r="R15" s="44"/>
       <c r="S15" s="45"/>
       <c r="T15" s="51"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="57"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -5977,6 +6180,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5988,13 +6198,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6005,8 +6208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:R10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6038,41 +6241,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
       <c r="W1" s="27"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="67"/>
       <c r="G2" s="4"/>
       <c r="H2" s="12"/>
       <c r="I2" s="31"/>
@@ -6105,57 +6308,57 @@
       <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="61" t="s">
+      <c r="K4" s="63"/>
+      <c r="L4" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="61" t="s">
+      <c r="O4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="66" t="s">
+      <c r="P4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="55" t="s">
+      <c r="V4" s="63" t="s">
         <v>51</v>
       </c>
       <c r="W4" s="28"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
@@ -6186,16 +6389,16 @@
       <c r="K5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="68"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6237,7 +6440,7 @@
       <c r="R6" s="44"/>
       <c r="S6" s="45"/>
       <c r="T6" s="50"/>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="55" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6252,7 +6455,9 @@
       <c r="B7" s="38">
         <v>45203</v>
       </c>
-      <c r="C7" s="38"/>
+      <c r="C7" s="38">
+        <v>45209</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>65</v>
       </c>
@@ -6292,7 +6497,7 @@
       </c>
       <c r="S7" s="45"/>
       <c r="T7" s="50"/>
-      <c r="U7" s="64"/>
+      <c r="U7" s="56"/>
       <c r="V7" s="3" t="s">
         <v>33</v>
       </c>
@@ -6305,7 +6510,9 @@
       <c r="B8" s="38">
         <v>45203</v>
       </c>
-      <c r="C8" s="38"/>
+      <c r="C8" s="38">
+        <v>45209</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>74</v>
       </c>
@@ -6347,7 +6554,7 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="50"/>
-      <c r="U8" s="64"/>
+      <c r="U8" s="56"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -6360,7 +6567,9 @@
       <c r="B9" s="38">
         <v>45203</v>
       </c>
-      <c r="C9" s="38"/>
+      <c r="C9" s="38">
+        <v>45209</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>65</v>
       </c>
@@ -6402,7 +6611,7 @@
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="50"/>
-      <c r="U9" s="64"/>
+      <c r="U9" s="56"/>
       <c r="V9" s="3" t="s">
         <v>49</v>
       </c>
@@ -6415,7 +6624,9 @@
       <c r="B10" s="38">
         <v>45203</v>
       </c>
-      <c r="C10" s="38"/>
+      <c r="C10" s="38">
+        <v>45209</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>65</v>
       </c>
@@ -6457,7 +6668,7 @@
       </c>
       <c r="S10" s="45"/>
       <c r="T10" s="50"/>
-      <c r="U10" s="64"/>
+      <c r="U10" s="56"/>
       <c r="V10" s="3" t="s">
         <v>29</v>
       </c>
@@ -6467,26 +6678,52 @@
       <c r="A11" s="45">
         <v>6</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="38">
+        <v>45218</v>
+      </c>
+      <c r="C11" s="38">
+        <v>45223</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="46">
+        <v>862205051202754</v>
+      </c>
       <c r="F11" s="47"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="48"/>
-      <c r="I11" s="40"/>
+      <c r="I11" s="40" t="s">
+        <v>115</v>
+      </c>
       <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="K11" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="44"/>
+      <c r="O11" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="44" t="s">
+        <v>73</v>
+      </c>
       <c r="S11" s="45"/>
       <c r="T11" s="50"/>
-      <c r="U11" s="64"/>
+      <c r="U11" s="56"/>
       <c r="V11" s="3" t="s">
         <v>28</v>
       </c>
@@ -6496,26 +6733,54 @@
       <c r="A12" s="45">
         <v>7</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="38">
+        <v>45223</v>
+      </c>
+      <c r="C12" s="38">
+        <v>45223</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>118</v>
+      </c>
       <c r="F12" s="47"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
+      <c r="G12" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>120</v>
+      </c>
       <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="M12" s="43" t="s">
+        <v>121</v>
+      </c>
       <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="44"/>
+      <c r="O12" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="44" t="s">
+        <v>70</v>
+      </c>
       <c r="S12" s="45"/>
       <c r="T12" s="50"/>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="55" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6527,26 +6792,54 @@
       <c r="A13" s="45">
         <v>8</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="38">
+        <v>45223</v>
+      </c>
+      <c r="C13" s="38">
+        <v>45223</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="46">
+        <v>862205051201681</v>
+      </c>
       <c r="F13" s="47"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="I13" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>125</v>
+      </c>
       <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="44"/>
+      <c r="O13" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="44" t="s">
+        <v>70</v>
+      </c>
       <c r="S13" s="45"/>
       <c r="T13" s="50"/>
-      <c r="U13" s="64"/>
+      <c r="U13" s="56"/>
       <c r="V13" s="3" t="s">
         <v>35</v>
       </c>
@@ -6556,26 +6849,56 @@
       <c r="A14" s="45">
         <v>9</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="38">
+        <v>45223</v>
+      </c>
+      <c r="C14" s="38">
+        <v>45223</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="46">
+        <v>862205051192708</v>
+      </c>
       <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
+      <c r="G14" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>125</v>
+      </c>
       <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="44"/>
+      <c r="O14" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="44" t="s">
+        <v>70</v>
+      </c>
       <c r="S14" s="45"/>
       <c r="T14" s="50"/>
-      <c r="U14" s="64"/>
+      <c r="U14" s="56"/>
       <c r="V14" s="3" t="s">
         <v>34</v>
       </c>
@@ -6604,7 +6927,7 @@
       <c r="R15" s="44"/>
       <c r="S15" s="45"/>
       <c r="T15" s="50"/>
-      <c r="U15" s="65"/>
+      <c r="U15" s="57"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -6900,7 +7223,7 @@
       </c>
       <c r="V25" s="3">
         <f>COUNTIF($R$6:$R$50,"*MCU*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25" s="50"/>
     </row>
@@ -8305,13 +8628,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8323,6 +8639,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang10/1.XuLyBH/XLBH2310_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang10/1.XuLyBH/XLBH2310_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="58" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="134">
   <si>
     <t>STT</t>
   </si>
@@ -412,6 +412,30 @@
   </si>
   <si>
     <t>Nâng cấp FW module + thiết bị</t>
+  </si>
+  <si>
+    <t>ID mới: 005581052577013</t>
+  </si>
+  <si>
+    <t>Le4.2.4.04.231030</t>
+  </si>
+  <si>
+    <t>Lỗi module sim 4G</t>
+  </si>
+  <si>
+    <t>Thay module sim</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>ID: 202110011122881, sim lỗi</t>
+  </si>
+  <si>
+    <t>Lỗi connector</t>
+  </si>
+  <si>
+    <t>Hàn lại connector</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3790,8 +3814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4431,23 +4455,49 @@
       <c r="A14" s="45">
         <v>9</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="38">
+        <v>45230</v>
+      </c>
       <c r="C14" s="38"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="43"/>
+      <c r="D14" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="46">
+        <v>867857039912881</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="43" t="s">
+        <v>82</v>
+      </c>
       <c r="K14" s="43"/>
       <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
+      <c r="M14" s="43" t="s">
+        <v>90</v>
+      </c>
       <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="44"/>
+      <c r="O14" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="S14" s="45"/>
       <c r="T14" s="51"/>
       <c r="U14" s="56"/>
@@ -4460,23 +4510,47 @@
       <c r="A15" s="45">
         <v>10</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="38">
+        <v>45230</v>
+      </c>
       <c r="C15" s="38"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="46">
+        <v>868183038553207</v>
+      </c>
       <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H15" s="37"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="43"/>
+      <c r="I15" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" s="43" t="s">
+        <v>82</v>
+      </c>
       <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
+      <c r="L15" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="43" t="s">
+        <v>133</v>
+      </c>
       <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="44"/>
+      <c r="O15" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="44" t="s">
+        <v>29</v>
+      </c>
       <c r="S15" s="45"/>
       <c r="T15" s="51"/>
       <c r="U15" s="57"/>
@@ -4489,12 +4563,20 @@
       <c r="A16" s="45">
         <v>11</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="38">
+        <v>45230</v>
+      </c>
       <c r="C16" s="38"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="46"/>
+      <c r="D16" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="46">
+        <v>868183034615232</v>
+      </c>
       <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="H16" s="37"/>
       <c r="I16" s="40"/>
       <c r="J16" s="43"/>
@@ -4629,7 +4711,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$50,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="51"/>
     </row>
@@ -4871,7 +4953,7 @@
       </c>
       <c r="V28" s="3">
         <f>COUNTIF($R$6:$R$50,"*NG*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28" s="51"/>
     </row>
@@ -6208,8 +6290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6419,25 +6501,37 @@
       <c r="G6" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>126</v>
+      </c>
       <c r="I6" s="40" t="s">
         <v>64</v>
       </c>
       <c r="J6" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="43"/>
+      <c r="K6" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="L6" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="43"/>
+        <v>128</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>129</v>
+      </c>
       <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
+      <c r="O6" s="41" t="s">
+        <v>69</v>
+      </c>
       <c r="P6" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="44"/>
+      <c r="Q6" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="44" t="s">
+        <v>33</v>
+      </c>
       <c r="S6" s="45"/>
       <c r="T6" s="50"/>
       <c r="U6" s="55" t="s">
@@ -7077,7 +7171,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$50,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="50"/>
     </row>
@@ -7255,7 +7349,7 @@
       </c>
       <c r="V26" s="3">
         <f>COUNTIF($R$6:$R$50,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="50"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang10/1.XuLyBH/XLBH2310_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang10/1.XuLyBH/XLBH2310_LapDat.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="130">
   <si>
     <t>STT</t>
   </si>
@@ -424,18 +424,6 @@
   </si>
   <si>
     <t>Thay module sim</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>ID: 202110011122881, sim lỗi</t>
-  </si>
-  <si>
-    <t>Lỗi connector</t>
-  </si>
-  <si>
-    <t>Hàn lại connector</t>
   </si>
 </sst>
 </file>
@@ -798,30 +786,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,6 +803,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,41 +1167,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
       <c r="W1" s="27"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="4"/>
       <c r="H2" s="12"/>
       <c r="I2" s="31"/>
@@ -1246,57 +1234,57 @@
       <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="60" t="s">
+      <c r="K4" s="55"/>
+      <c r="L4" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="58" t="s">
+      <c r="P4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="55" t="s">
         <v>51</v>
       </c>
       <c r="W4" s="28"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="53" t="s">
         <v>1</v>
       </c>
@@ -1327,16 +1315,16 @@
       <c r="K5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="68"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1388,7 +1376,7 @@
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="54"/>
-      <c r="U6" s="55" t="s">
+      <c r="U6" s="63" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1443,7 +1431,7 @@
       </c>
       <c r="S7" s="45"/>
       <c r="T7" s="54"/>
-      <c r="U7" s="56"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>33</v>
       </c>
@@ -1498,7 +1486,7 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="54"/>
-      <c r="U8" s="56"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1555,7 +1543,7 @@
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="54"/>
-      <c r="U9" s="56"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1612,7 +1600,7 @@
       </c>
       <c r="S10" s="45"/>
       <c r="T10" s="54"/>
-      <c r="U10" s="56"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1669,7 +1657,7 @@
       </c>
       <c r="S11" s="45"/>
       <c r="T11" s="54"/>
-      <c r="U11" s="56"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1726,7 +1714,7 @@
       </c>
       <c r="S12" s="45"/>
       <c r="T12" s="54"/>
-      <c r="U12" s="55" t="s">
+      <c r="U12" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1785,7 +1773,7 @@
       </c>
       <c r="S13" s="45"/>
       <c r="T13" s="54"/>
-      <c r="U13" s="56"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1842,7 +1830,7 @@
       </c>
       <c r="S14" s="45"/>
       <c r="T14" s="54"/>
-      <c r="U14" s="56"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>34</v>
       </c>
@@ -1899,7 +1887,7 @@
       </c>
       <c r="S15" s="45"/>
       <c r="T15" s="54"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -3786,6 +3774,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3797,13 +3792,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3815,7 +3803,7 @@
   <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3847,41 +3835,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
       <c r="W1" s="27"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="4"/>
       <c r="H2" s="12"/>
       <c r="I2" s="31"/>
@@ -3914,57 +3902,57 @@
       <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="60" t="s">
+      <c r="K4" s="55"/>
+      <c r="L4" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="58" t="s">
+      <c r="P4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="55" t="s">
         <v>51</v>
       </c>
       <c r="W4" s="28"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
@@ -3995,16 +3983,16 @@
       <c r="K5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="68"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4058,7 +4046,7 @@
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="51"/>
-      <c r="U6" s="55" t="s">
+      <c r="U6" s="63" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4115,7 +4103,7 @@
       </c>
       <c r="S7" s="45"/>
       <c r="T7" s="51"/>
-      <c r="U7" s="56"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>33</v>
       </c>
@@ -4172,7 +4160,7 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="51"/>
-      <c r="U8" s="56"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -4227,7 +4215,7 @@
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="51"/>
-      <c r="U9" s="56"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>49</v>
       </c>
@@ -4282,7 +4270,7 @@
       </c>
       <c r="S10" s="45"/>
       <c r="T10" s="51"/>
-      <c r="U10" s="56"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>29</v>
       </c>
@@ -4335,7 +4323,7 @@
       </c>
       <c r="S11" s="45"/>
       <c r="T11" s="51"/>
-      <c r="U11" s="56"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4388,7 +4376,7 @@
       </c>
       <c r="S12" s="45"/>
       <c r="T12" s="51"/>
-      <c r="U12" s="55" t="s">
+      <c r="U12" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4445,7 +4433,7 @@
       </c>
       <c r="S13" s="45"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="56"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>35</v>
       </c>
@@ -4455,52 +4443,26 @@
       <c r="A14" s="45">
         <v>9</v>
       </c>
-      <c r="B14" s="38">
-        <v>45230</v>
-      </c>
+      <c r="B14" s="38"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="46">
-        <v>867857039912881</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>82</v>
-      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="43"/>
       <c r="K14" s="43"/>
       <c r="L14" s="43"/>
-      <c r="M14" s="43" t="s">
-        <v>90</v>
-      </c>
+      <c r="M14" s="43"/>
       <c r="N14" s="41"/>
-      <c r="O14" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="44" t="s">
-        <v>23</v>
-      </c>
+      <c r="O14" s="41"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="44"/>
       <c r="S14" s="45"/>
       <c r="T14" s="51"/>
-      <c r="U14" s="56"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>34</v>
       </c>
@@ -4510,50 +4472,26 @@
       <c r="A15" s="45">
         <v>10</v>
       </c>
-      <c r="B15" s="38">
-        <v>45230</v>
-      </c>
+      <c r="B15" s="38"/>
       <c r="C15" s="38"/>
-      <c r="D15" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="46">
-        <v>868183038553207</v>
-      </c>
+      <c r="D15" s="37"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="37" t="s">
-        <v>63</v>
-      </c>
+      <c r="G15" s="37"/>
       <c r="H15" s="37"/>
-      <c r="I15" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>82</v>
-      </c>
+      <c r="I15" s="40"/>
+      <c r="J15" s="43"/>
       <c r="K15" s="43"/>
-      <c r="L15" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>133</v>
-      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" s="44" t="s">
-        <v>29</v>
-      </c>
+      <c r="O15" s="41"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="44"/>
       <c r="S15" s="45"/>
       <c r="T15" s="51"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -4563,20 +4501,12 @@
       <c r="A16" s="45">
         <v>11</v>
       </c>
-      <c r="B16" s="38">
-        <v>45230</v>
-      </c>
+      <c r="B16" s="38"/>
       <c r="C16" s="38"/>
-      <c r="D16" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="46">
-        <v>868183034615232</v>
-      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="47"/>
-      <c r="G16" s="37" t="s">
-        <v>63</v>
-      </c>
+      <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="40"/>
       <c r="J16" s="43"/>
@@ -4711,7 +4641,7 @@
       </c>
       <c r="V20" s="3">
         <f>COUNTIF($Q$6:$Q$50,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="51"/>
     </row>
@@ -4953,7 +4883,7 @@
       </c>
       <c r="V28" s="3">
         <f>COUNTIF($R$6:$R$50,"*NG*")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W28" s="51"/>
     </row>
@@ -6262,13 +6192,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6280,6 +6203,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6323,41 +6253,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
       <c r="W1" s="27"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="4"/>
       <c r="H2" s="12"/>
       <c r="I2" s="31"/>
@@ -6390,57 +6320,57 @@
       <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="60" t="s">
+      <c r="K4" s="55"/>
+      <c r="L4" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="60" t="s">
+      <c r="M4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="60" t="s">
+      <c r="O4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="58" t="s">
+      <c r="P4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="60" t="s">
+      <c r="Q4" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="60" t="s">
+      <c r="R4" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="62" t="s">
+      <c r="S4" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="55" t="s">
         <v>51</v>
       </c>
       <c r="W4" s="28"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="49" t="s">
         <v>1</v>
       </c>
@@ -6471,16 +6401,16 @@
       <c r="K5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="62"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="68"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6534,7 +6464,7 @@
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="50"/>
-      <c r="U6" s="55" t="s">
+      <c r="U6" s="63" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6591,7 +6521,7 @@
       </c>
       <c r="S7" s="45"/>
       <c r="T7" s="50"/>
-      <c r="U7" s="56"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="3" t="s">
         <v>33</v>
       </c>
@@ -6648,7 +6578,7 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="50"/>
-      <c r="U8" s="56"/>
+      <c r="U8" s="64"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -6705,7 +6635,7 @@
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="50"/>
-      <c r="U9" s="56"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="3" t="s">
         <v>49</v>
       </c>
@@ -6762,7 +6692,7 @@
       </c>
       <c r="S10" s="45"/>
       <c r="T10" s="50"/>
-      <c r="U10" s="56"/>
+      <c r="U10" s="64"/>
       <c r="V10" s="3" t="s">
         <v>29</v>
       </c>
@@ -6817,7 +6747,7 @@
       </c>
       <c r="S11" s="45"/>
       <c r="T11" s="50"/>
-      <c r="U11" s="56"/>
+      <c r="U11" s="64"/>
       <c r="V11" s="3" t="s">
         <v>28</v>
       </c>
@@ -6874,7 +6804,7 @@
       </c>
       <c r="S12" s="45"/>
       <c r="T12" s="50"/>
-      <c r="U12" s="55" t="s">
+      <c r="U12" s="63" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6933,7 +6863,7 @@
       </c>
       <c r="S13" s="45"/>
       <c r="T13" s="50"/>
-      <c r="U13" s="56"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="3" t="s">
         <v>35</v>
       </c>
@@ -6992,7 +6922,7 @@
       </c>
       <c r="S14" s="45"/>
       <c r="T14" s="50"/>
-      <c r="U14" s="56"/>
+      <c r="U14" s="64"/>
       <c r="V14" s="3" t="s">
         <v>34</v>
       </c>
@@ -7021,7 +6951,7 @@
       <c r="R15" s="44"/>
       <c r="S15" s="45"/>
       <c r="T15" s="50"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="65"/>
       <c r="V15" s="3" t="s">
         <v>23</v>
       </c>
@@ -8722,6 +8652,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8733,13 +8670,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U15"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
